--- a/InputQues/武清站_公共题库.xlsx
+++ b/InputQues/武清站_公共题库.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\OneDrive\私人文档\互通文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Softwares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D157D7-7708-4110-9CA9-D0AA7B61EF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF90EEC-205D-412D-BDA2-3581F23D6FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="244">
   <si>
     <t>Question</t>
   </si>
@@ -121,6 +121,12 @@
     <t>下风位置;上风或侧风位置;离起火点10米以上的位置</t>
   </si>
   <si>
+    <t>PLC的全称是( )</t>
+  </si>
+  <si>
+    <t>Programmable Logic Controller;Personal Learning Center;Power Line Communication;Public Limited Company</t>
+  </si>
+  <si>
     <t>PLC</t>
   </si>
   <si>
@@ -252,7 +258,25 @@
     <t>串联电容器;并联电容器;串联电感;并联电感</t>
   </si>
   <si>
-    <t>在采用三相四线制供电时，如各相负载不一样，则(D)。</t>
+    <r>
+      <t>在采用三相四线制供电时，如各相负载不一样，则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>( )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>可以去掉中性线，对负载无影响;不可以去掉中性线，因为会烧坏三相电源;中性线上电流为零;中性线上电流不为零</t>
@@ -575,7 +599,57 @@
     <t>以下哪( )项属于火灾逃生的要点。</t>
   </si>
   <si>
-    <t>防烟熏;果断迅速逃离火场;寻找逃生之路;;等待他救</t>
+    <r>
+      <t>防烟熏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>果断迅速逃离火场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寻找逃生之路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等待他救</t>
+    </r>
   </si>
   <si>
     <t>0;1;2;3</t>
@@ -632,11 +706,57 @@
     <t>监护人在现场的职责有( )</t>
   </si>
   <si>
-    <t>作业前检查安全作业票、安全作业票应与作业内容相符并在有效期内、核查安全作业票中各项安全措施已得到落实、确认相关作业人员持有效资格证书上岗;
-核查作业人员配备和使用的个体防护装备满足作业要求;作业现场出现异常情况时应中止作业，并采取安全有效措施进行应急处置;当作业人员违章时，应及时制止违章，情节严重时，应收回安全作业票、中止作业。</t>
-  </si>
-  <si>
-    <t>0;1;2;3;4</t>
+    <r>
+      <t>作业前检查安全作业票、安全作业票应与作业内容相符并在有效期内、核查安全作业票中各项安全措施已得到落实、确认相关作业人员持有效资格证书上岗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核查作业人员配备和使用的个体防护装备满足作业要求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作业现场出现异常情况时应中止作业，并采取安全有效措施进行应急处置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当作业人员违章时，应及时制止违章，情节严重时，应收回安全作业票、中止作业。</t>
+    </r>
   </si>
   <si>
     <t>以下关于临时用电说法正确的有( )</t>
@@ -657,7 +777,73 @@
     <t>压缩空气储气罐是具有爆炸危险的压力容器，为加强储气罐安全管理，其出厂资料必须有( )。</t>
   </si>
   <si>
-    <t>生产厂家简介;质量合格证;受压元件强度计算书;安全阀排放量计算书E.安装使用说明书</t>
+    <r>
+      <t>生产厂家简介</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质量合格证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受压元件强度计算书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全阀排放量计算书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装使用说明书</t>
+    </r>
   </si>
   <si>
     <t>在气瓶的使用和维护中，应该采取的正确做法是( )。</t>
@@ -910,43 +1096,12 @@
   <si>
     <t>火灾发生时，如果身处高层建筑，可以沿着楼梯间向下逃生。( )</t>
   </si>
-  <si>
-    <r>
-      <t>PLC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的全称是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>( )</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Programmable Logic Controller;Personal Learning Center;Power Line Communication;Public Limited Company</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -966,12 +1121,6 @@
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1000,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1043,9 +1192,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1532,31 +1678,31 @@
     </row>
     <row r="9" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>245</v>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -1569,15 +1715,15 @@
         <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -1590,15 +1736,15 @@
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1611,15 +1757,15 @@
         <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -1632,15 +1778,15 @@
         <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -1653,15 +1799,15 @@
         <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -1674,15 +1820,15 @@
         <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -1695,15 +1841,15 @@
         <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1716,15 +1862,15 @@
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1737,15 +1883,15 @@
         <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -1758,18 +1904,18 @@
         <v>10</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
@@ -1779,15 +1925,15 @@
         <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -1800,15 +1946,15 @@
         <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1821,15 +1967,15 @@
         <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -1842,15 +1988,15 @@
         <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1863,15 +2009,15 @@
         <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1884,15 +2030,15 @@
         <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -1905,15 +2051,15 @@
         <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -1926,15 +2072,15 @@
         <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>63</v>
+      <c r="A28" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -1947,15 +2093,15 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -1968,15 +2114,15 @@
         <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -1989,15 +2135,15 @@
         <v>10</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
@@ -2010,15 +2156,15 @@
         <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -2031,15 +2177,15 @@
         <v>10</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
@@ -2052,15 +2198,15 @@
         <v>10</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
@@ -2073,15 +2219,15 @@
         <v>10</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -2094,15 +2240,15 @@
         <v>10</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -2115,15 +2261,15 @@
         <v>10</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -2136,15 +2282,15 @@
         <v>10</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
@@ -2157,15 +2303,15 @@
         <v>10</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="69" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C39" s="3">
         <v>3</v>
@@ -2178,15 +2324,15 @@
         <v>10</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3">
         <v>3</v>
@@ -2199,15 +2345,15 @@
         <v>10</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -2220,15 +2366,15 @@
         <v>10</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
@@ -2241,15 +2387,15 @@
         <v>10</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3">
         <v>2</v>
@@ -2262,15 +2408,15 @@
         <v>10</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -2283,15 +2429,15 @@
         <v>10</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3">
         <v>3</v>
@@ -2304,15 +2450,15 @@
         <v>10</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -2330,10 +2476,10 @@
     </row>
     <row r="47" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C47" s="3">
         <v>3</v>
@@ -2346,15 +2492,15 @@
         <v>10</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C48" s="3">
         <v>2</v>
@@ -2367,15 +2513,15 @@
         <v>10</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C49" s="3">
         <v>2</v>
@@ -2388,15 +2534,15 @@
         <v>10</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -2409,15 +2555,15 @@
         <v>10</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C51" s="3">
         <v>3</v>
@@ -2430,15 +2576,15 @@
         <v>10</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -2451,15 +2597,15 @@
         <v>10</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -2472,15 +2618,15 @@
         <v>10</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -2493,15 +2639,15 @@
         <v>10</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C55" s="3">
         <v>2</v>
@@ -2514,15 +2660,15 @@
         <v>10</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -2535,15 +2681,15 @@
         <v>10</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C57" s="3">
         <v>0</v>
@@ -2556,15 +2702,15 @@
         <v>10</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -2577,15 +2723,15 @@
         <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
@@ -2598,15 +2744,15 @@
         <v>10</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C60" s="3">
         <v>3</v>
@@ -2619,15 +2765,15 @@
         <v>10</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C61" s="3">
         <v>2</v>
@@ -2640,15 +2786,15 @@
         <v>10</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C62" s="3">
         <v>0</v>
@@ -2661,15 +2807,15 @@
         <v>10</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C63" s="3">
         <v>2</v>
@@ -2682,15 +2828,15 @@
         <v>10</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C64" s="3">
         <v>2</v>
@@ -2703,15 +2849,15 @@
         <v>10</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C65" s="3">
         <v>2</v>
@@ -2724,15 +2870,15 @@
         <v>10</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -2745,15 +2891,15 @@
         <v>10</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
@@ -2766,15 +2912,15 @@
         <v>10</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C68" s="3">
         <v>2</v>
@@ -2787,15 +2933,15 @@
         <v>10</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C69" s="3">
         <v>2</v>
@@ -2808,15 +2954,15 @@
         <v>10</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C70" s="3">
         <v>0</v>
@@ -2834,16 +2980,16 @@
     </row>
     <row r="71" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="5" t="s">
@@ -2855,16 +3001,16 @@
     </row>
     <row r="72" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="D72" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="5" t="s">
@@ -2874,18 +3020,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="5" t="s">
@@ -2897,16 +3043,16 @@
     </row>
     <row r="74" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="D74" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="5" t="s">
@@ -2918,16 +3064,16 @@
     </row>
     <row r="75" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="5" t="s">
@@ -2939,16 +3085,16 @@
     </row>
     <row r="76" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="5" t="s">
@@ -2960,16 +3106,16 @@
     </row>
     <row r="77" spans="1:7" ht="69" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="5" t="s">
@@ -2981,182 +3127,182 @@
     </row>
     <row r="78" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B84" s="4" t="s">
         <v>186</v>
       </c>
+      <c r="B84" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="C84" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="5" t="s">
@@ -3168,14 +3314,14 @@
     </row>
     <row r="87" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="5" t="s">
@@ -3187,14 +3333,14 @@
     </row>
     <row r="88" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="5" t="s">
@@ -3206,14 +3352,14 @@
     </row>
     <row r="89" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="5" t="s">
@@ -3225,14 +3371,14 @@
     </row>
     <row r="90" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="5" t="s">
@@ -3244,14 +3390,14 @@
     </row>
     <row r="91" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3">
         <v>0</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="5" t="s">
@@ -3263,14 +3409,14 @@
     </row>
     <row r="92" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="5" t="s">
@@ -3282,14 +3428,14 @@
     </row>
     <row r="93" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="5" t="s">
@@ -3301,14 +3447,14 @@
     </row>
     <row r="94" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="5" t="s">
@@ -3320,14 +3466,14 @@
     </row>
     <row r="95" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="5" t="s">
@@ -3339,14 +3485,14 @@
     </row>
     <row r="96" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="5" t="s">
@@ -3358,14 +3504,14 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3">
         <v>0</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="5" t="s">
@@ -3377,324 +3523,324 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3">
         <v>1</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3">
         <v>0</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3">
         <v>1</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3">
         <v>0</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3">
         <v>0</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3">
         <v>0</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3">
         <v>0</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3">
         <v>0</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E114" s="3">
         <v>18</v>
@@ -3703,274 +3849,274 @@
         <v>10</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3">
         <v>0</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3">
         <v>0</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3">
         <v>0</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3">
         <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3">
         <v>0</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3">
         <v>0</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="5" t="s">
@@ -3982,14 +4128,14 @@
     </row>
     <row r="129" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3">
         <v>1</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="5" t="s">
@@ -4001,14 +4147,14 @@
     </row>
     <row r="130" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3">
         <v>0</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="5" t="s">
@@ -4020,14 +4166,14 @@
     </row>
     <row r="131" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="5" t="s">
@@ -4039,14 +4185,14 @@
     </row>
     <row r="132" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="5" t="s">
